--- a/data/WHO_Tumors/intermediate/df_4th_edition_manual_edit.xlsx
+++ b/data/WHO_Tumors/intermediate/df_4th_edition_manual_edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lahiria/Desktop/MTP_Paper/CT-Embedding-Paper/data/WHO_Tumors/intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620A1575-1A33-D54E-A797-2F8F1DEB7043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F22219-2F2D-8747-BD3E-BEB43E20847D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3120" windowWidth="38400" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8837" uniqueCount="1822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8839" uniqueCount="1824">
   <si>
     <t>Tumor_Names</t>
   </si>
@@ -5488,6 +5488,12 @@
   </si>
   <si>
     <t>skin adnexal type tumours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radial scar </t>
+  </si>
+  <si>
+    <t>complex sclerosing lesion</t>
   </si>
 </sst>
 </file>
@@ -5529,21 +5535,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -26715,19 +26707,9 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Yes">
+  <conditionalFormatting sqref="B1:D1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",B1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",C1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30225,10 +30207,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5A08CD-BD1A-6646-8E12-B2FDE4CBF3A2}">
-  <dimension ref="A1:A2183"/>
+  <dimension ref="A1:A2185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1454" workbookViewId="0">
-      <selection activeCell="B1491" sqref="B1491"/>
+    <sheetView tabSelected="1" topLeftCell="A2056" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+      <selection activeCell="A2072" sqref="A2072"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -40638,277 +40620,277 @@
     </row>
     <row r="2081" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2081" t="s">
-        <v>1459</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="2082" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2082" t="s">
-        <v>1460</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="2083" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2083" t="s">
-        <v>1771</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="2084" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2084" t="s">
-        <v>1772</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="2085" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2085" t="s">
-        <v>1461</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="2086" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2086" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="2087" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2087" t="s">
-        <v>1774</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="2088" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2088" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="2089" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2089" t="s">
-        <v>1462</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="2090" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2090" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="2091" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2091" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="2092" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2092" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="2093" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2093" t="s">
-        <v>71</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="2094" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2094" t="s">
-        <v>1464</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="2095" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2095" t="s">
-        <v>1778</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2096" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2096" t="s">
-        <v>1779</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="2097" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2097" t="s">
-        <v>1465</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="2098" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2098" t="s">
-        <v>1466</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="2099" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2099" t="s">
-        <v>1780</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="2100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2100" t="s">
-        <v>1781</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="2101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2101" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="2102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2102" t="s">
-        <v>1467</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="2103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2103" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="2104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2104" t="s">
-        <v>1190</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="2105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2105" t="s">
-        <v>1468</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="2106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2106" t="s">
-        <v>1784</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="2107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2107" t="s">
-        <v>1786</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="2108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2108" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="2109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2109" t="s">
-        <v>1469</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="2110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2110" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="2111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2111" t="s">
-        <v>1788</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="2112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2112" t="s">
-        <v>1470</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="2113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2113" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="2114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2114" t="s">
-        <v>1789</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="2115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2115" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="2116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2116" t="s">
-        <v>1471</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="2117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2117" t="s">
-        <v>1472</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="2118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2118" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="2119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2119" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="2120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2120" t="s">
-        <v>1792</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="2121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2121" t="s">
-        <v>1793</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="2122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2122" t="s">
-        <v>1475</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="2123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2123" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="2124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2124" t="s">
-        <v>1794</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="2125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2125" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="2126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2126" t="s">
-        <v>1476</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="2127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2127" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="2128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2128" t="s">
-        <v>1800</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="2129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2129" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="2130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2130" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="2131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2131" t="s">
-        <v>1477</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="2132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2132" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="2133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2133" t="s">
-        <v>135</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="2134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2134" t="s">
-        <v>1709</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="2135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2135" t="s">
-        <v>1478</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2136" spans="1:1" x14ac:dyDescent="0.2">
@@ -40918,236 +40900,246 @@
     </row>
     <row r="2137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2137" t="s">
-        <v>16</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="2138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2138" t="s">
-        <v>1802</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="2139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2139" t="s">
-        <v>1708</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2140" t="s">
-        <v>1479</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="2141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2141" t="s">
-        <v>1480</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="2142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2142" t="s">
-        <v>925</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="2143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2143" t="s">
-        <v>917</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="2144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2144" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="2145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2145" t="s">
-        <v>1481</v>
+        <v>917</v>
       </c>
     </row>
     <row r="2146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2146" t="s">
-        <v>740</v>
+        <v>931</v>
       </c>
     </row>
     <row r="2147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2147" t="s">
-        <v>16</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="2148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2148" t="s">
-        <v>11</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2149" t="s">
-        <v>1482</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2150" t="s">
-        <v>1483</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2151" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="2152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2152" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="2153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2153" t="s">
-        <v>1805</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="2154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2154" t="s">
-        <v>1803</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2155" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="2156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2156" t="s">
-        <v>1486</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="2157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2157" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="2158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2158" t="s">
-        <v>1806</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2159" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="2160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2160" t="s">
-        <v>1487</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="2161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2161" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="2162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2162" t="s">
-        <v>1810</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="2163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2163" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="2164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2164" t="s">
-        <v>1301</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="2165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2165" t="s">
-        <v>1580</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="2166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2166" t="s">
-        <v>1579</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="2167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2167" t="s">
-        <v>1488</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="2168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2168" t="s">
-        <v>1812</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="2169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2169" t="s">
-        <v>1813</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="2170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2170" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="2171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2171" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="2172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2172" t="s">
-        <v>1489</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="2173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2173" t="s">
-        <v>1490</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="2174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2174" t="s">
-        <v>1816</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="2175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2175" t="s">
-        <v>1817</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="2176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2176" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="2177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2177" t="s">
-        <v>1491</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="2178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2178" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="2179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2179" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="2180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2180" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="2181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2181" t="s">
-        <v>1821</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="2182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2182" t="s">
-        <v>1493</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="2183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2183" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2184" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2185" t="s">
         <v>1494</v>
       </c>
     </row>

--- a/data/WHO_Tumors/intermediate/df_4th_edition_manual_edit.xlsx
+++ b/data/WHO_Tumors/intermediate/df_4th_edition_manual_edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lahiria/Desktop/MTP_Paper/CT-Embedding-Paper/data/WHO_Tumors/intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F22219-2F2D-8747-BD3E-BEB43E20847D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49DF887-3916-D443-B6CE-7BF60097A03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3120" windowWidth="38400" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8839" uniqueCount="1824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8839" uniqueCount="1825">
   <si>
     <t>Tumor_Names</t>
   </si>
@@ -5494,6 +5494,9 @@
   </si>
   <si>
     <t>complex sclerosing lesion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myositis ossificans </t>
   </si>
 </sst>
 </file>
@@ -30209,8 +30212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5A08CD-BD1A-6646-8E12-B2FDE4CBF3A2}">
   <dimension ref="A1:A2185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2056" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
-      <selection activeCell="A2072" sqref="A2072"/>
+    <sheetView tabSelected="1" topLeftCell="A1794" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+      <selection activeCell="A1809" sqref="A1809"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -39265,7 +39268,7 @@
     </row>
     <row r="1810" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1810" t="s">
-        <v>1635</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1811" spans="1:1" x14ac:dyDescent="0.2">
